--- a/DataCollection.xlsx
+++ b/DataCollection.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HNI5335ASW03" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNG5031ASW09" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BNH0079ASW04 " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HNI6314ASW02" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -3441,4 +3442,755 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Interface</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>LinkState</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ActSpeed</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ActDuplex</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PVid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2755</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>h004_mw_goncttmtvtcttcs1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2455</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>h004_ow_quanccnttvtkh12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>h004_ow_quanccnttvtkh3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2452</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>h004_ow_quanccnttvtkh2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2452</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>h004_ow_quanccnttvtkh3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>h004_ow_quanccnttvtkh2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>UPLINK_SRT_PORT9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/DataCollection.xlsx
+++ b/DataCollection.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNG5031ASW09" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BNH0079ASW04 " sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HNI6314ASW02" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HCM6197ASW03" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -3644,7 +3645,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3672,7 +3672,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3700,7 +3699,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3728,7 +3726,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3756,7 +3753,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3784,7 +3780,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3812,7 +3807,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3840,7 +3834,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3868,7 +3861,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3896,7 +3888,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3924,7 +3915,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3952,7 +3942,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3980,7 +3969,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4008,7 +3996,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4036,7 +4023,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4064,7 +4050,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4156,7 +4141,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4187,6 +4171,1159 @@
       <c r="F25" t="inlineStr">
         <is>
           <t>UPLINK_SRT_PORT9</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Interface</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Protocol</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>InUti</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>OutUti</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inErrors</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>outErrors</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Eth-Trunk11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Eth-Trunk11 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AGG HCM0001_II-AGG S22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>to_ACIHC024_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HCM6197SRT01_GI0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>HCM5323A_IES1248</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>t008_m_cmc_148</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>gasshipping</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L2VPN_DIENLUC_HCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>29616</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/8 Interf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>t008_ftth_tphcmvkioitt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/10 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/11 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>t008_ll_namcttnhhckmawmv</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>khoandaukhi_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/14 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/15 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>t008_mw_viettelchtctt35</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/17 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>36158893</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/18 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>line_615948218</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/20 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>t008_mw_optus</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1817039</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>op_o_ctyvienthongfpt_161</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>t008_mw_natixis</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>t008_mw_agribank_35tonducthang</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MEth0/0/1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, MEth0/0/1 Interface</t>
         </is>
       </c>
     </row>

--- a/DataCollection.xlsx
+++ b/DataCollection.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HNI5335ASW03" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNG5031ASW09" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BNH0079ASW04 " sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HNI6314ASW02" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HCM6197ASW03" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HNI6314ASW02" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HCM6197ASW03" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LDG0158ASW01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BNH0079ASW04 " sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNG5031ASW09" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1911,7 +1912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,22 +1928,22 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BandWidth(Mbits)</t>
+          <t>LinkState</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>AdminState</t>
+          <t>ActSpeed</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>PhysicalState</t>
+          <t>ActDuplex</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ProtocolState</t>
+          <t>PVid</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -1954,832 +1955,683 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FastEthernet1/1</t>
+          <t>GigabitEthernet0/1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Up</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>d511_ftth_thutt2</t>
+          <t>h004_mw_goncttmtvtcttcs1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FastEthernet1/2</t>
+          <t>GigabitEthernet0/2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IPTV_4_d511_ftth</t>
+          <t>h004_ow_quanccnttvtkh12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FastEthernet1/3</t>
+          <t>GigabitEthernet0/3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>IPTV_4_d511_ftth</t>
+          <t>h004_ow_quanccnttvtkh3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FastEthernet1/4</t>
+          <t>GigabitEthernet0/4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IPTV_3_d511_ftth</t>
+          <t>h004_ow_quanccnttvtkh2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FastEthernet1/5</t>
+          <t>GigabitEthernet0/5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>IPTV_1_d511_ftth</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FastEthernet1/6</t>
+          <t>GigabitEthernet0/6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>d511_ftth_thuytt</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FastEthernet1/7</t>
+          <t>GigabitEthernet0/7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>d511_ftth_danglt</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FastEthernet1/8</t>
+          <t>GigabitEthernet0/8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>THS_1_d511_ftth_</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FastEthernet1/9</t>
+          <t>GigabitEthernet0/9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>d511_ftth_liienn</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FastEthernet1/10</t>
+          <t>GigabitEthernet0/10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>d511_ftth_hieunp</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FastEthernet1/11</t>
+          <t>GigabitEthernet0/11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>d511_ftth_thannv</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FastEthernet1/12</t>
+          <t>GigabitEthernet0/12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>d511_ftth_nghiap</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FastEthernet1/13</t>
+          <t>GigabitEthernet0/13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>THS_1_d511_ftth_</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FastEthernet1/14</t>
+          <t>GigabitEthernet0/14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>d511_ftth_phuocn</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FastEthernet1/15</t>
+          <t>GigabitEthernet0/15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>d511_ftth_thuann</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FastEthernet1/16</t>
+          <t>GigabitEthernet0/16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>d511_ftth_thihtk</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FastEthernet1/17</t>
+          <t>GigabitEthernet0/17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>none</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FastEthernet1/18</t>
+          <t>GigabitEthernet0/18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>IPTV_0_d511_ftth</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FastEthernet1/19</t>
+          <t>GigabitEthernet0/19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>IPTV_0_d511_ftth</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FastEthernet1/20</t>
+          <t>GigabitEthernet0/20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>IPTV_0_d511_ftth</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FastEthernet1/21</t>
+          <t>GigabitEthernet0/21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>h004_ow_quanccnttvtkh3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FastEthernet1/22</t>
+          <t>GigabitEthernet0/22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>h004_ow_quanccnttvtkh2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FastEthernet1/23</t>
+          <t>GigabitEthernet0/23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>none</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FastEthernet1/24</t>
+          <t>GigabitEthernet0/24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Up</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NETTV_congtycoph</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GigabitEthernet1/25</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>GigabitEthernet1/26</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>UP_DNG0140_p0/9</t>
+          <t>UPLINK_SRT_PORT9</t>
         </is>
       </c>
     </row>
@@ -2789,6 +2641,2106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Interface</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Protocol</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>InUti</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>OutUti</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inErrors</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>outErrors</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Eth-Trunk11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Eth-Trunk11 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AGG HCM0001_II-AGG S22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>to_ACIHC024_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HCM6197SRT01_GI0/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>HCM5323A_IES1248</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>t008_m_cmc_148</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>gasshipping</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L2VPN_DIENLUC_HCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>29616</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/8 Interf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>t008_ftth_tphcmvkioitt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/10 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/11 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>t008_ll_namcttnhhckmawmv</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>khoandaukhi_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/14 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/15 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>t008_mw_viettelchtctt35</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/17 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>36158893</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/18 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>line_615948218</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/20 Inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>t008_mw_optus</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1817039</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>op_o_ctyvienthongfpt_161</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>t008_mw_natixis</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>t008_mw_agribank_35tonducthang</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MEth0/0/1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, MEth0/0/1 Interface</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>PortNumber</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AdminState</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Operate</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Speed/Duplex</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>port 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>port 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>port 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>port 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>l063_ftth_baotq1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>port 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>l063_ftth_dangnh1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>l063_ftth_thanglv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>line_616541191</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>port 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>port 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>port 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>port 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>l063_ftth_phongnt8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>port 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>port 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>l063_ftth_thuongnm1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>l063_ftth_thaontt6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>port 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>port 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>port 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>port 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>port 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100M/full</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>port 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>port 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>port 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>disable</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>port 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>up(1000M/full)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1000M/full</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>UPLINK_LDG0158ASW01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3445,13 +5397,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3467,22 +5419,22 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>LinkState</t>
+          <t>BandWidth(Mbits)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ActSpeed</t>
+          <t>AdminState</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ActDuplex</t>
+          <t>PhysicalState</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>PVid</t>
+          <t>ProtocolState</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -3494,1764 +5446,780 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/1</t>
+          <t>FastEthernet1/1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>up</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>h004_mw_goncttmtvtcttcs1</t>
+          <t>d511_ftth_thutt2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/2</t>
+          <t>FastEthernet1/2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>up</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>h004_ow_quanccnttvtkh12</t>
+          <t>IPTV_4_d511_ftth</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/3</t>
+          <t>FastEthernet1/3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>up</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>h004_ow_quanccnttvtkh3</t>
+          <t>IPTV_4_d511_ftth</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/4</t>
+          <t>FastEthernet1/4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>up</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>h004_ow_quanccnttvtkh2</t>
+          <t>IPTV_3_d511_ftth</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/5</t>
+          <t>FastEthernet1/5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>IPTV_1_d511_ftth</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/6</t>
+          <t>FastEthernet1/6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>d511_ftth_thuytt</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/7</t>
+          <t>FastEthernet1/7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>d511_ftth_danglt</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/8</t>
+          <t>FastEthernet1/8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>THS_1_d511_ftth_</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/9</t>
+          <t>FastEthernet1/9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>d511_ftth_liienn</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/10</t>
+          <t>FastEthernet1/10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>d511_ftth_hieunp</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/11</t>
+          <t>FastEthernet1/11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>d511_ftth_thannv</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/12</t>
+          <t>FastEthernet1/12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>d511_ftth_nghiap</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/13</t>
+          <t>FastEthernet1/13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>THS_1_d511_ftth_</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/14</t>
+          <t>FastEthernet1/14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>d511_ftth_phuocn</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/15</t>
+          <t>FastEthernet1/15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>d511_ftth_thuann</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/16</t>
+          <t>FastEthernet1/16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>d511_ftth_thihtk</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/17</t>
+          <t>FastEthernet1/17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/18</t>
+          <t>FastEthernet1/18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>IPTV_0_d511_ftth</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/19</t>
+          <t>FastEthernet1/19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>IPTV_0_d511_ftth</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/20</t>
+          <t>FastEthernet1/20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>IPTV_0_d511_ftth</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/21</t>
+          <t>FastEthernet1/21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>down</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>h004_ow_quanccnttvtkh3</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/22</t>
+          <t>FastEthernet1/22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>down</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>h004_ow_quanccnttvtkh2</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/23</t>
+          <t>FastEthernet1/23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>down</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/24</t>
+          <t>FastEthernet1/24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>down</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UPLINK_SRT_PORT9</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Interface</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Physical</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Protocol</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>InUti</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>OutUti</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>inErrors</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>outErrors</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Eth-Trunk11</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, Eth-Trunk11 Interface</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>AGG HCM0001_II-AGG S22</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>to_ACIHC024_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>HCM6197SRT01_GI0/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>HCM5323A_IES1248</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>t008_m_cmc_148</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>gasshipping</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>L2VPN_DIENLUC_HCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>*down</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>29616</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/8 Interf</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/9</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>t008_ftth_tphcmvkioitt</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>*down</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/10 Inter</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>*down</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/11 Inter</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>t008_ll_namcttnhhckmawmv</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/13</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>khoandaukhi_01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/14</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>*down</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/14 Inter</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>*down</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/15 Inter</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/16</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06%</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.07%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>t008_mw_viettelchtctt35</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/17</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/17 Inter</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/18</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>*down</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>36158893</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/18 Inter</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/19</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>line_615948218</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>*down</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/20 Inter</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/21</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>t008_mw_optus</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/22</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1817039</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>op_o_ctyvienthongfpt_161</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GigabitEthernet0/0/23</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>down</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>t008_mw_natixis</t>
+          <t>NETTV_congtycoph</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/0/24</t>
+          <t>GigabitEthernet1/25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5261,69 +6229,49 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>down</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>down</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>t008_mw_agribank_35tonducthang</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MEth0/0/1</t>
+          <t>GigabitEthernet1/26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>down</t>
+          <t>up</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>up</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>up</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>HUAWEI, Quidway Series, MEth0/0/1 Interface</t>
+          <t>UP_DNG0140_p0/9</t>
         </is>
       </c>
     </row>

--- a/DataCollection.xlsx
+++ b/DataCollection.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LDG0158ASW01" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BNH0079ASW04 " sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNG5031ASW09" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="THA0821ASW01" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -6278,4 +6279,1141 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PVID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>FlowControl</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SpeedDuplex</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>t037_a_line_dinhbt1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>t037_a_line_tuha</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>100M</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>100-full</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10/100/1000M</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10/100/1000M</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10/100/1000M</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>UPLINK_THA0821SRT03</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10/100/1000M</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1000-full</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/DataCollection.xlsx
+++ b/DataCollection.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BNH0079ASW04 " sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNG5031ASW09" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="THA0821ASW01" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VTU0009ASW01" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -6348,7 +6349,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>1</t>
@@ -6386,7 +6386,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>1</t>
@@ -6424,7 +6423,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>1</t>
@@ -6504,7 +6502,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>1</t>
@@ -6542,7 +6539,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>1</t>
@@ -6580,7 +6576,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>1</t>
@@ -6660,7 +6655,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>1</t>
@@ -6698,7 +6692,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>1</t>
@@ -6736,7 +6729,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>1</t>
@@ -6774,7 +6766,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>1</t>
@@ -6812,7 +6803,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>1</t>
@@ -6850,7 +6840,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>1</t>
@@ -6888,7 +6877,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>1</t>
@@ -6926,7 +6914,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>1</t>
@@ -6964,7 +6951,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>1</t>
@@ -7002,7 +6988,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>1</t>
@@ -7040,7 +7025,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>1</t>
@@ -7078,7 +7062,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>1</t>
@@ -7116,7 +7099,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>1</t>
@@ -7154,7 +7136,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>1</t>
@@ -7192,7 +7173,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>1</t>
@@ -7230,7 +7210,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>1</t>
@@ -7268,7 +7247,6 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>1</t>
@@ -7306,7 +7284,6 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>1</t>
@@ -7344,7 +7321,6 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>1</t>
@@ -7410,6 +7386,754 @@
       <c r="H29" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Interface</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AdminStatus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>PhysicalStatus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Protocol</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>VTU0009AR01_P_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>v064_ftth_linhltp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>h004_o_tct_1477</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>v064_ftth_doicnvbtvt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>v064_ftth_traittn1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>v064_ow_brvta12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>v064_ftth_doicnvbtvt</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>nhphattriencd</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>thptnguyendu_ftth_vt</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>v064_ftth_phuoclhl</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>v064_ow_noicnctchtvt</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>line_617208121</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>v064_ftth_ducttgdtxh</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>v064_ftth_dunghv7</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>v064_ftth_hungcttsp</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vlan1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vlan51</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>none</t>
         </is>
       </c>
     </row>

--- a/DataCollection.xlsx
+++ b/DataCollection.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNG5031ASW09" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="THA0821ASW01" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VTU0009ASW01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QNH0019ASW09" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -8140,4 +8141,1451 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Interface</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Protocol</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>InUti</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>OutUti</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inErrors</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>outErrors</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>line_616983625</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>q033_ftth_huygv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/3 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>q033_ftth_tranttt1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/5 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/6 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>THS_1_q033_ftth_trunghv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/8 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>q033_ftth_hongtt9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/10 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>q033_ftth_huctthcst1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/12 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>q033_ftth_lieuttttb6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/14 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/15 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>q033_mw_hoinhcsx13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/17 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>q033_ftth_lieupgdvdthb3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>IPTV_1_q033_ftth_phongld</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>q033_ftth_sonpt5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/21 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/22 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/23 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/24 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/1 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/2 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>UPlink_to_QNH0019ASW02_0/1/2_link2_MVR_vlan36</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>UPlink_to_QNH0019ASW05_0/1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NULL0</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>up(s)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, NULL0 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vlanif1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Vlanif1 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vlanif73</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Vlanif73Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Vlanif151</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Vlanif151Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Vlanif1051</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Vlanif1051 Interface</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/DataCollection.xlsx
+++ b/DataCollection.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="THA0821ASW01" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VTU0009ASW01" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QNH0019ASW09" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NTN0022ASW01" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1909,6 +1910,1369 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Interface</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Physical</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Protocol</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>InUti</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>OutUti</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inErrors</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>outErrors</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/1 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/2 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>n068_ftth_tiemttn1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/4 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>line_617009813</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2744</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>n068_ftth_tunv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11828</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>n068_ftth_tinhnv2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/8 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/9 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/10 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/11 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/12 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/13 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/14 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/15 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>n068_ftth_haunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/17 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/18 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>564193</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>THS_1_n068_ftth_thuongbx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/20 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>n068_ftth_trucdt</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3921</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>line_617173020</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Ethernet0/0/23 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ethernet0/0/24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>n068_ftth_hanvpddccs</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5046</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>UPLINK_NTN0022SRT01-Gi0/2/20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>n068_ftth_hanvpddccs</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>n068_ftth_tuunv</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0/4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>*down</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, GigabitEthernet0/0/4 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NULL0</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>up(s)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, NULL0 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vlanif1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Vlanif1 Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vlanif51</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>HUAWEI, Quidway Series, Vlanif51Interface</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/DataCollection.xlsx
+++ b/DataCollection.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VTU0009ASW01" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QNH0019ASW09" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NTN0022ASW01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NAN0184ASW01" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -3273,6 +3274,1533 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>LinkState</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ShutDownStatus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Operate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Speed</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pri</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mode</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>TagVlan</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>UtVlan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>e0/0/1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n038_f</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>e0/0/2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>hyb</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>e0/0/3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>line_6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>35-36,3888</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>e0/0/4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>n038_f</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>e0/0/5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>THS_1_ down</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>35,2502,</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>e0/0/6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>n038_f</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>e0/0/7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n038_f</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>e0/0/8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>THS_1_ down</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>35,2502,</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>e0/0/9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>hyb</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>e0/0/10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n038_f up  </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>f100-f100</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>35,2502,</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>e0/0/11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>hyb</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>e0/0/12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>hyb</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>e0/0/13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n038_f</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>e0/0/14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>n038_a down</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>e0/0/15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>hyb</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>e0/0/16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>n038_f</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>e0/0/17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n038_f</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>e0/0/18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>hyb</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>e0/0/19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>line_6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>e0/0/20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>hyb</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>e0/0/21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>hyb</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>e0/0/22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>n038_f</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>e0/0/23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>line_6</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f100</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>e0/0/24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">n038_a up  </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>f100-f100</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>e0/1/1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UPLINK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f1000-f1000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35-38,40, </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>e0/1/2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f1000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>e0/1/3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>line_6 down</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>35,2502,</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>e0/1/4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>line_6 down</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>trk</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>35,2502,</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
